--- a/TestData/Test1.xlsx
+++ b/TestData/Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="3750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Flat no.</t>
   </si>
@@ -63,22 +64,26 @@
     <t>Phone no.</t>
   </si>
   <si>
-    <t>Test1--&gt;</t>
-  </si>
-  <si>
-    <t>Sheet1--&gt;</t>
-  </si>
-  <si>
-    <t>row 5--&gt;</t>
-  </si>
-  <si>
-    <t>cell 3--&gt;</t>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Aspire</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Institute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -417,8 +423,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>101</v>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>102</v>
@@ -503,31 +509,6 @@
         <v>1234546789</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1">
-        <v>411001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -535,12 +516,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
